--- a/biology/Botanique/Allium_pyrenaicum/Allium_pyrenaicum.xlsx
+++ b/biology/Botanique/Allium_pyrenaicum/Allium_pyrenaicum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ail des Pyrénées (Allium pyrenaicum) est une espèce de plante herbacée vivace appartenant au genre Allium (les ails) et à la famille des Amaryllidacées. Il est endémique des Pyrénées espagnoles et classé vulnérable par l'UICN.
-Ses ombelles à fleurs blanches ou roses s'épanouissent en été dans les rocailles et lisières forestières, entre 600 et 1 300 mètres d'altitude[1].
+Ses ombelles à fleurs blanches ou roses s'épanouissent en été dans les rocailles et lisières forestières, entre 600 et 1 300 mètres d'altitude.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante à bulbe, érigée, de taille moyenne (10 à 30 cm). Ses feuilles sont linéaires, planes et la tige est triangulaire. L'inflorescence en ombelle presque sphérique porte des fleurs à tépales roses ou blancs, plus courts que les étamines. Sa floraison se produit de juin à août. Son fruit est une capsule.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On la trouve  en lisières forestières, dans les rocailles. Elle est endémique des Pyrénées espagnoles (Catalogne,  Aragon).
 </t>
